--- a/inst/stage_positions.xlsx
+++ b/inst/stage_positions.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="pdata" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="well_images" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="well_order" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="checks" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="strain" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,15 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t xml:space="preserve">pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">well</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strain</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -110,6 +105,12 @@
   </si>
   <si>
     <t xml:space="preserve">Orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ΔAct1</t>
   </si>
 </sst>
 </file>
@@ -293,7 +294,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -350,10 +351,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -374,7 +371,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -565,7 +562,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -577,12 +574,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -647,7 +640,7 @@
   </sheetPr>
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AB8" activeCellId="0" sqref="AB8"/>
     </sheetView>
   </sheetViews>
@@ -736,7 +729,7 @@
     </row>
     <row r="2" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7" t="n">
         <v>0</v>
@@ -815,7 +808,7 @@
     </row>
     <row r="3" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>0</v>
@@ -892,7 +885,7 @@
     </row>
     <row r="4" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>0</v>
@@ -969,7 +962,7 @@
     </row>
     <row r="5" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>0</v>
@@ -1046,7 +1039,7 @@
     </row>
     <row r="6" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>0</v>
@@ -1123,7 +1116,7 @@
     </row>
     <row r="7" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>0</v>
@@ -1200,7 +1193,7 @@
     </row>
     <row r="8" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>0</v>
@@ -1277,7 +1270,7 @@
     </row>
     <row r="9" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10" t="n">
         <v>0</v>
@@ -1354,7 +1347,7 @@
     </row>
     <row r="10" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="10" t="n">
         <v>0</v>
@@ -1431,7 +1424,7 @@
     </row>
     <row r="11" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="10" t="n">
         <v>0</v>
@@ -1508,7 +1501,7 @@
     </row>
     <row r="12" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>0</v>
@@ -1585,7 +1578,7 @@
     </row>
     <row r="13" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>0</v>
@@ -1662,7 +1655,7 @@
     </row>
     <row r="14" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>0</v>
@@ -1739,7 +1732,7 @@
     </row>
     <row r="15" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>0</v>
@@ -1816,7 +1809,7 @@
     </row>
     <row r="16" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>0</v>
@@ -1893,7 +1886,7 @@
     </row>
     <row r="17" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>0</v>
@@ -2089,7 +2082,7 @@
     </row>
     <row r="2" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="11" t="n">
         <v>0</v>
@@ -2168,7 +2161,7 @@
     </row>
     <row r="3" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>0</v>
@@ -2245,7 +2238,7 @@
     </row>
     <row r="4" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>0</v>
@@ -2322,7 +2315,7 @@
     </row>
     <row r="5" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>0</v>
@@ -2399,7 +2392,7 @@
     </row>
     <row r="6" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>0</v>
@@ -2476,7 +2469,7 @@
     </row>
     <row r="7" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>0</v>
@@ -2553,7 +2546,7 @@
     </row>
     <row r="8" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>0</v>
@@ -2630,7 +2623,7 @@
     </row>
     <row r="9" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10" t="n">
         <v>0</v>
@@ -2707,7 +2700,7 @@
     </row>
     <row r="10" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="10" t="n">
         <v>0</v>
@@ -2784,7 +2777,7 @@
     </row>
     <row r="11" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="10" t="n">
         <v>0</v>
@@ -2861,7 +2854,7 @@
     </row>
     <row r="12" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>0</v>
@@ -2938,7 +2931,7 @@
     </row>
     <row r="13" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>0</v>
@@ -3015,7 +3008,7 @@
     </row>
     <row r="14" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>0</v>
@@ -3092,7 +3085,7 @@
     </row>
     <row r="15" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>0</v>
@@ -3169,7 +3162,7 @@
     </row>
     <row r="16" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>0</v>
@@ -3246,7 +3239,7 @@
     </row>
     <row r="17" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="11" t="n">
         <v>0</v>
@@ -3359,83 +3352,83 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="14" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="B2" s="14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="16" t="n">
+      <c r="C2" s="15" t="n">
         <f aca="false">COUNTA(pdata!A2:A9999)</f>
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="14" t="n">
         <f aca="false">SUM(well_images!B2:Y17)</f>
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="17" t="str">
+      <c r="A4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="16" t="str">
         <f aca="false">IF(C3=C2,"OK","MISMATCH")</f>
         <v>OK</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="19" t="n">
+      <c r="A5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="18" t="n">
         <f aca="false">COUNTIF(well_images!B2:Y17,"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="19" t="n">
+      <c r="C6" s="18" t="n">
         <f aca="false">COUNTIF(well_order!B2:Y17,"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="20" t="str">
+      <c r="A7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="19" t="str">
         <f aca="false">IF(C6=C5,"OK","MISMATCH")</f>
         <v>OK</v>
       </c>
@@ -3452,4 +3445,590 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AB17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.06640625" defaultRowHeight="28.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="3" width="41.3"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="n">
+        <v>384</v>
+      </c>
+      <c r="B1" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>